--- a/Data/ocStubborn.xlsx
+++ b/Data/ocStubborn.xlsx
@@ -4,7 +4,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="API Return" sheetId="2" r:id="rId2"/>
+    <sheet name="Business Match" sheetId="2" r:id="rId2"/>
+    <sheet name="Business No Match" sheetId="3" r:id="rId3"/>
+    <sheet name="Match" sheetId="4" r:id="rId4"/>
+    <sheet name="No Match" sheetId="5" r:id="rId5"/>
+    <sheet name="Match No Phone" sheetId="6" r:id="rId6"/>
+    <sheet name="Duplicates" sheetId="7" r:id="rId7"/>
+    <sheet name="Incomplete Data" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$483</definedName>
@@ -638,6 +644,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>NAME</v>
+      </c>
+      <c r="B1" t="str">
+        <v>FIRM</v>
+      </c>
+      <c r="C1" t="str">
+        <v>MAILING</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CITY</v>
+      </c>
+      <c r="E1" t="str">
+        <v>STATE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>ZIP</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ZIP4</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ZIP5</v>
+      </c>
+      <c r="I1" t="str">
+        <v>DPC</v>
+      </c>
+      <c r="J1" t="str">
+        <v>CRRT</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BARCODE</v>
+      </c>
+      <c r="L1" t="str">
+        <v>CORCOUNTY</v>
+      </c>
+      <c r="M1" t="str">
+        <v>SALUT</v>
+      </c>
+      <c r="N1" t="str">
+        <v>FIRST</v>
+      </c>
+      <c r="O1" t="str">
+        <v>MI</v>
+      </c>
+      <c r="P1" t="str">
+        <v>LAST</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>DEG</v>
+      </c>
+      <c r="R1" t="str">
+        <v>TYPE</v>
+      </c>
+      <c r="S1" t="str">
+        <v>CREDITOR</v>
+      </c>
+      <c r="T1" t="str">
+        <v>AMOUNTT</v>
+      </c>
+      <c r="U1" t="str">
+        <v>UPLOADDATE</v>
+      </c>
+      <c r="V1" t="str">
+        <v>FILEDATE</v>
+      </c>
+      <c r="W1" t="str">
+        <v>RUN_DATE</v>
+      </c>
+      <c r="X1" t="str">
+        <v>DATEDIFF</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Officer List</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Officer Name</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Officer Position</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>SUMBUL Z. NAQVI D.M.D</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Sumbul Z Naqvi Dmd Inc</v>
+      </c>
+      <c r="C2" t="str">
+        <v>223 Walnut St Ste 22</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Framingham</v>
+      </c>
+      <c r="E2" t="str">
+        <v>MA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>01702-7500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>7500</v>
+      </c>
+      <c r="H2" t="str">
+        <v>01702</v>
+      </c>
+      <c r="I2" t="str">
+        <v>224</v>
+      </c>
+      <c r="J2" t="str">
+        <v>C036</v>
+      </c>
+      <c r="K2" t="str">
+        <v>/017027500224/</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Middlesex</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v>Sumbul</v>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v>D.M.d</v>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v>Federal Tax Lien</v>
+      </c>
+      <c r="S2" t="str">
+        <v>INTERNAL REVENUE SERVICE</v>
+      </c>
+      <c r="T2">
+        <v>140441</v>
+      </c>
+      <c r="U2" t="str">
+        <v>20240919</v>
+      </c>
+      <c r="V2" t="str">
+        <v>20240701</v>
+      </c>
+      <c r="W2" t="str">
+        <v>25-Oct-24</v>
+      </c>
+      <c r="X2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>True</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>SUMBUL Z. NAQVI D.M.D</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>president</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>NAME</v>
+      </c>
+      <c r="B1" t="str">
+        <v>FIRM</v>
+      </c>
+      <c r="C1" t="str">
+        <v>MAILING</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CITY</v>
+      </c>
+      <c r="E1" t="str">
+        <v>STATE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>ZIP</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ZIP4</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ZIP5</v>
+      </c>
+      <c r="I1" t="str">
+        <v>DPC</v>
+      </c>
+      <c r="J1" t="str">
+        <v>CRRT</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BARCODE</v>
+      </c>
+      <c r="L1" t="str">
+        <v>CORCOUNTY</v>
+      </c>
+      <c r="M1" t="str">
+        <v>SALUT</v>
+      </c>
+      <c r="N1" t="str">
+        <v>FIRST</v>
+      </c>
+      <c r="O1" t="str">
+        <v>MI</v>
+      </c>
+      <c r="P1" t="str">
+        <v>LAST</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>DEG</v>
+      </c>
+      <c r="R1" t="str">
+        <v>TYPE</v>
+      </c>
+      <c r="S1" t="str">
+        <v>CREDITOR</v>
+      </c>
+      <c r="T1" t="str">
+        <v>AMOUNTT</v>
+      </c>
+      <c r="U1" t="str">
+        <v>UPLOADDATE</v>
+      </c>
+      <c r="V1" t="str">
+        <v>FILEDATE</v>
+      </c>
+      <c r="W1" t="str">
+        <v>RUN_DATE</v>
+      </c>
+      <c r="X1" t="str">
+        <v>DATEDIFF</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Officer List</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>J P Bartlett Company Inc</v>
+      </c>
+      <c r="C2" t="str">
+        <v>578 Boston Post Rd</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sudbury</v>
+      </c>
+      <c r="E2" t="str">
+        <v>MA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>01776-3377</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3377</v>
+      </c>
+      <c r="H2" t="str">
+        <v>01776</v>
+      </c>
+      <c r="I2" t="str">
+        <v>784</v>
+      </c>
+      <c r="J2" t="str">
+        <v>C008</v>
+      </c>
+      <c r="K2" t="str">
+        <v>/017763377784/</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Middlesex</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v>Federal Tax Lien</v>
+      </c>
+      <c r="S2" t="str">
+        <v>INTERNAL REVENUE SERVICE</v>
+      </c>
+      <c r="T2">
+        <v>398699</v>
+      </c>
+      <c r="U2" t="str">
+        <v>20240917</v>
+      </c>
+      <c r="V2" t="str">
+        <v>20240801</v>
+      </c>
+      <c r="W2" t="str">
+        <v>25-Oct-24</v>
+      </c>
+      <c r="X2">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>No Companies Found</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>NAME</v>
+      </c>
+      <c r="B1" t="str">
+        <v>FIRM</v>
+      </c>
+      <c r="C1" t="str">
+        <v>MAILING</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CITY</v>
+      </c>
+      <c r="E1" t="str">
+        <v>STATE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>ZIP</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ZIP4</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ZIP5</v>
+      </c>
+      <c r="I1" t="str">
+        <v>DPC</v>
+      </c>
+      <c r="J1" t="str">
+        <v>CRRT</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BARCODE</v>
+      </c>
+      <c r="L1" t="str">
+        <v>CORCOUNTY</v>
+      </c>
+      <c r="M1" t="str">
+        <v>SALUT</v>
+      </c>
+      <c r="N1" t="str">
+        <v>FIRST</v>
+      </c>
+      <c r="O1" t="str">
+        <v>MI</v>
+      </c>
+      <c r="P1" t="str">
+        <v>LAST</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>DEG</v>
+      </c>
+      <c r="R1" t="str">
+        <v>TYPE</v>
+      </c>
+      <c r="S1" t="str">
+        <v>CREDITOR</v>
+      </c>
+      <c r="T1" t="str">
+        <v>AMOUNTT</v>
+      </c>
+      <c r="U1" t="str">
+        <v>UPLOADDATE</v>
+      </c>
+      <c r="V1" t="str">
+        <v>FILEDATE</v>
+      </c>
+      <c r="W1" t="str">
+        <v>RUN_DATE</v>
+      </c>
+      <c r="X1" t="str">
+        <v>DATEDIFF</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Officer List</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Officer Name</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Officer Position</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>MATCH</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>SUMBUL Z. NAQVI D.M.D</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Sumbul Z Naqvi Dmd Inc</v>
+      </c>
+      <c r="C2" t="str">
+        <v>223 Walnut St Ste 22</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Framingham</v>
+      </c>
+      <c r="E2" t="str">
+        <v>MA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>01702-7500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>7500</v>
+      </c>
+      <c r="H2" t="str">
+        <v>01702</v>
+      </c>
+      <c r="I2" t="str">
+        <v>224</v>
+      </c>
+      <c r="J2" t="str">
+        <v>C036</v>
+      </c>
+      <c r="K2" t="str">
+        <v>/017027500224/</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Middlesex</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v>Sumbul</v>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v>D.M.d</v>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v>Federal Tax Lien</v>
+      </c>
+      <c r="S2" t="str">
+        <v>INTERNAL REVENUE SERVICE</v>
+      </c>
+      <c r="T2">
+        <v>140441</v>
+      </c>
+      <c r="U2" t="str">
+        <v>20240919</v>
+      </c>
+      <c r="V2" t="str">
+        <v>20240701</v>
+      </c>
+      <c r="W2" t="str">
+        <v>25-Oct-24</v>
+      </c>
+      <c r="X2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>True</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>SUMBUL Z. NAQVI D.M.D</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>president</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>No strong matches</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
